--- a/sitepreview/pcmt-vaxprequal/v0.2.0/StructureDefinition-PreQualDBwithIds.xlsx
+++ b/sitepreview/pcmt-vaxprequal/v0.2.0/StructureDefinition-PreQualDBwithIds.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T16:28:44+00:00</t>
+    <t>2025-09-16T17:03:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/pcmt-vaxprequal/v0.2.0/StructureDefinition-PreQualDBwithIds.xlsx
+++ b/sitepreview/pcmt-vaxprequal/v0.2.0/StructureDefinition-PreQualDBwithIds.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T17:03:17+00:00</t>
+    <t>2025-09-16T17:23:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/pcmt-vaxprequal/v0.2.0/StructureDefinition-PreQualDBwithIds.xlsx
+++ b/sitepreview/pcmt-vaxprequal/v0.2.0/StructureDefinition-PreQualDBwithIds.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T17:23:33+00:00</t>
+    <t>2025-09-16T18:06:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/pcmt-vaxprequal/v0.2.0/StructureDefinition-PreQualDBwithIds.xlsx
+++ b/sitepreview/pcmt-vaxprequal/v0.2.0/StructureDefinition-PreQualDBwithIds.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T18:06:15+00:00</t>
+    <t>2025-09-16T18:24:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/pcmt-vaxprequal/v0.2.0/StructureDefinition-PreQualDBwithIds.xlsx
+++ b/sitepreview/pcmt-vaxprequal/v0.2.0/StructureDefinition-PreQualDBwithIds.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T18:24:26+00:00</t>
+    <t>2025-09-16T18:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/pcmt-vaxprequal/v0.2.0/StructureDefinition-PreQualDBwithIds.xlsx
+++ b/sitepreview/pcmt-vaxprequal/v0.2.0/StructureDefinition-PreQualDBwithIds.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T18:48:18+00:00</t>
+    <t>2025-09-16T19:27:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/pcmt-vaxprequal/v0.2.0/StructureDefinition-PreQualDBwithIds.xlsx
+++ b/sitepreview/pcmt-vaxprequal/v0.2.0/StructureDefinition-PreQualDBwithIds.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T19:27:51+00:00</t>
+    <t>2025-09-16T20:18:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/pcmt-vaxprequal/v0.2.0/StructureDefinition-PreQualDBwithIds.xlsx
+++ b/sitepreview/pcmt-vaxprequal/v0.2.0/StructureDefinition-PreQualDBwithIds.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T20:18:01+00:00</t>
+    <t>2025-09-16T20:38:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
